--- a/T_FILMES.xlsx
+++ b/T_FILMES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RH Ymbale\Downloads\Python\2.Streamlit\Prazo_frete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RH Ymbale\Documents\GitHub\Deploy-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA307BC-E027-4C27-8275-15207ADF6A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6784A57-A49A-4DC1-BB9A-F92E08827E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FB2828D7-4868-4DE0-B296-55E19472E0DD}"/>
   </bookViews>
@@ -1459,7 +1459,7 @@
     <t>B2- GALETOS DO BRASIL</t>
   </si>
   <si>
-    <t>B2- SABOR BRAZUCA</t>
+    <t>B1- SABOR BRAZUCA</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,24 +1961,24 @@
       <c r="F2" s="19"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>470</v>
       </c>
       <c r="B3" s="16">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D3" s="17">
         <v>30</v>
       </c>
       <c r="E3" s="18">
         <f>INDEX(Planilha2!E:E,MATCH(Planilha1!B3,Planilha2!A:A,0),1)*Planilha1!D3</f>
-        <v>8293.2000000000007</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>5679.3</v>
+      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,17 +1986,17 @@
         <v>470</v>
       </c>
       <c r="B4" s="16">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D4" s="17">
         <v>30</v>
       </c>
       <c r="E4" s="18">
         <f>INDEX(Planilha2!E:E,MATCH(Planilha1!B4,Planilha2!A:A,0),1)*Planilha1!D4</f>
-        <v>5679.3</v>
+        <v>8293.2000000000007</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
